--- a/Helper_Spreadsheets/SS_Data_Input.xlsx
+++ b/Helper_Spreadsheets/SS_Data_Input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chantell.Wetzel\Documents\Stock Synthesis\Helper_Spreadsheets\v3.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chantell.wetzel\Documents\GitHub\ss_documentation\Helper_Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19272" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Data_typical" sheetId="8" r:id="rId1"/>
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="191">
   <si>
     <t>#_styr</t>
   </si>
@@ -752,9 +752,6 @@
     <t xml:space="preserve">#_fleet_type: 1=catch fleet; 2=bycatch only fleet; 3=survey; 4=ignore </t>
   </si>
   <si>
-    <t xml:space="preserve">#_survey_timing: -1=for use of catch-at-age to override the month value associated with a datum </t>
-  </si>
-  <si>
     <t xml:space="preserve">#_fleet_area:  area the fleet/survey operates in </t>
   </si>
   <si>
@@ -903,6 +900,12 @@
   </si>
   <si>
     <t>#_mintailcomp, addtocomp, combM+F, CompressBins, CompError, ParmSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#_timing: -1=for fisheries and 0.5 for surveys, can be overridden to be month specific </t>
+  </si>
+  <si>
+    <t>SD_Report</t>
   </si>
 </sst>
 </file>
@@ -2819,27 +2822,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="Q244" sqref="Q244"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="D229" sqref="D229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1971</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2001</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>12</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>40</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -2919,71 +2922,71 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="G21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>3</v>
       </c>
@@ -3003,10 +3006,10 @@
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>3</v>
       </c>
@@ -3023,35 +3026,35 @@
         <v>0</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>-999</v>
       </c>
@@ -3068,10 +3071,10 @@
         <v>0.01</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1971</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>1972</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>1973</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1974</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1975</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>1976</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1977</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>1978</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>1979</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>1980</v>
       </c>
@@ -3241,7 +3244,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>1981</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1982</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>1983</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>1984</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>1985</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>1986</v>
       </c>
@@ -3343,7 +3346,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>1987</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>1988</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>1989</v>
       </c>
@@ -3394,7 +3397,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>1990</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>1991</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>1992</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>1993</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>1994</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>1995</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>1996</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>1997</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>1998</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>1999</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>2000</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>2001</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>-9999</v>
       </c>
@@ -3615,19 +3618,19 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>6</v>
       </c>
@@ -3642,7 +3645,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3657,7 +3660,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>110</v>
       </c>
@@ -3667,10 +3670,12 @@
       <c r="C63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="3"/>
+      <c r="D63" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>1</v>
       </c>
@@ -3680,11 +3685,14 @@
       <c r="C64" s="15">
         <v>0</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="15">
+        <v>0</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>2</v>
       </c>
@@ -3694,11 +3702,14 @@
       <c r="C65" s="15">
         <v>0</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="15">
+        <v>0</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>3</v>
       </c>
@@ -3708,16 +3719,19 @@
       <c r="C66" s="15">
         <v>0</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D66" s="15">
+        <v>0</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>53</v>
@@ -3732,7 +3746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>1977</v>
       </c>
@@ -3755,7 +3769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>1980</v>
       </c>
@@ -3778,7 +3792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>1983</v>
       </c>
@@ -3801,7 +3815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>1986</v>
       </c>
@@ -3824,7 +3838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>1989</v>
       </c>
@@ -3847,7 +3861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>1992</v>
       </c>
@@ -3870,7 +3884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>1995</v>
       </c>
@@ -3893,7 +3907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>1998</v>
       </c>
@@ -3916,7 +3930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>2001</v>
       </c>
@@ -3939,7 +3953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>1990</v>
       </c>
@@ -3962,7 +3976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>1991</v>
       </c>
@@ -3985,7 +3999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>1992</v>
       </c>
@@ -4008,7 +4022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>1993</v>
       </c>
@@ -4031,7 +4045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>1994</v>
       </c>
@@ -4054,7 +4068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>1995</v>
       </c>
@@ -4077,7 +4091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>1996</v>
       </c>
@@ -4100,7 +4114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>1997</v>
       </c>
@@ -4123,7 +4137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>1998</v>
       </c>
@@ -4146,7 +4160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>1999</v>
       </c>
@@ -4169,7 +4183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>2000</v>
       </c>
@@ -4192,7 +4206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>2001</v>
       </c>
@@ -4215,7 +4229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>-9999</v>
       </c>
@@ -4235,10 +4249,10 @@
         <v>16</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>0</v>
       </c>
@@ -4246,7 +4260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>0</v>
       </c>
@@ -4254,7 +4268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>0</v>
       </c>
@@ -4262,17 +4276,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>2</v>
       </c>
@@ -4280,7 +4294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>2</v>
       </c>
@@ -4288,7 +4302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>10</v>
       </c>
@@ -4296,7 +4310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>94</v>
       </c>
@@ -4304,50 +4318,50 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>1</v>
       </c>
       <c r="B102" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>0</v>
       </c>
@@ -4367,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>0</v>
       </c>
@@ -4390,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>0</v>
       </c>
@@ -4413,10 +4427,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:56" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>25</v>
       </c>
@@ -4424,7 +4438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>104</v>
       </c>
@@ -4432,7 +4446,7 @@
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>26</v>
       </c>
@@ -4509,12 +4523,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>32</v>
@@ -4583,7 +4597,7 @@
       <c r="BC116" s="13"/>
       <c r="BD116" s="14"/>
     </row>
-    <row r="117" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>1971</v>
       </c>
@@ -4753,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>1972</v>
       </c>
@@ -4923,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>1973</v>
       </c>
@@ -5093,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>1974</v>
       </c>
@@ -5263,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>1975</v>
       </c>
@@ -5433,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>1976</v>
       </c>
@@ -5603,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>1977</v>
       </c>
@@ -5773,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>1978</v>
       </c>
@@ -5943,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>1979</v>
       </c>
@@ -6113,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>1980</v>
       </c>
@@ -6283,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>1981</v>
       </c>
@@ -6453,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>1982</v>
       </c>
@@ -6623,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>1983</v>
       </c>
@@ -6793,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>1984</v>
       </c>
@@ -6963,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>1985</v>
       </c>
@@ -7133,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>1986</v>
       </c>
@@ -7303,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>1987</v>
       </c>
@@ -7473,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>1988</v>
       </c>
@@ -7643,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>1989</v>
       </c>
@@ -7813,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>1990</v>
       </c>
@@ -7983,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>1991</v>
       </c>
@@ -8153,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>1992</v>
       </c>
@@ -8323,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>1993</v>
       </c>
@@ -8493,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>1994</v>
       </c>
@@ -8663,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>1995</v>
       </c>
@@ -8833,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>1996</v>
       </c>
@@ -9003,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>1997</v>
       </c>
@@ -9173,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>1998</v>
       </c>
@@ -9343,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>1999</v>
       </c>
@@ -9513,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>2000</v>
       </c>
@@ -9683,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>2001</v>
       </c>
@@ -9853,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>1977</v>
       </c>
@@ -10023,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>1980</v>
       </c>
@@ -10193,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>1983</v>
       </c>
@@ -10363,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>1986</v>
       </c>
@@ -10533,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>1989</v>
       </c>
@@ -10703,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>1992</v>
       </c>
@@ -10873,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>1995</v>
       </c>
@@ -11043,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>1998</v>
       </c>
@@ -11213,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>2001</v>
       </c>
@@ -11383,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>1990</v>
       </c>
@@ -11553,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>1991</v>
       </c>
@@ -11723,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>1992</v>
       </c>
@@ -11893,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>1993</v>
       </c>
@@ -12063,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>1994</v>
       </c>
@@ -12233,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>1995</v>
       </c>
@@ -12403,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>1996</v>
       </c>
@@ -12573,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>1997</v>
       </c>
@@ -12743,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>1998</v>
       </c>
@@ -12913,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>1999</v>
       </c>
@@ -13083,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>-9999</v>
       </c>
@@ -13253,8 +13267,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:56" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:56" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>17</v>
       </c>
@@ -13262,12 +13276,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="170" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="171" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>1</v>
       </c>
@@ -13320,7 +13334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <v>2</v>
       </c>
@@ -13328,8 +13342,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:56" ht="73.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:56" ht="73.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>-1</v>
       </c>
@@ -13454,7 +13468,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>1E-3</v>
       </c>
@@ -13579,7 +13593,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>0.5</v>
       </c>
@@ -13704,7 +13718,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="180" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>0.5</v>
       </c>
@@ -13829,42 +13843,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="183" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="183" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+    <row r="184" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="184" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+    <row r="185" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="185" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="186" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="187" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="187" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="188" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="189" spans="1:41" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>0</v>
       </c>
@@ -13884,10 +13898,10 @@
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="190" spans="1:41" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>0</v>
       </c>
@@ -13907,10 +13921,10 @@
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="191" spans="1:41" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>0</v>
       </c>
@@ -13930,28 +13944,28 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="192" spans="1:41" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="192" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <v>1</v>
       </c>
       <c r="B192" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="193" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="193" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="194" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>32</v>
@@ -13978,7 +13992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>1971</v>
       </c>
@@ -14109,7 +14123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>1972</v>
       </c>
@@ -14240,7 +14254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>1973</v>
       </c>
@@ -14371,7 +14385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>1974</v>
       </c>
@@ -14502,7 +14516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>1975</v>
       </c>
@@ -14633,7 +14647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>1976</v>
       </c>
@@ -14764,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>1977</v>
       </c>
@@ -14895,7 +14909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>1978</v>
       </c>
@@ -15026,7 +15040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <v>1979</v>
       </c>
@@ -15157,7 +15171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <v>1980</v>
       </c>
@@ -15288,7 +15302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>1981</v>
       </c>
@@ -15419,7 +15433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <v>1982</v>
       </c>
@@ -15550,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>1983</v>
       </c>
@@ -15681,7 +15695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <v>1984</v>
       </c>
@@ -15812,7 +15826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>1985</v>
       </c>
@@ -15943,7 +15957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <v>1986</v>
       </c>
@@ -16074,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>1987</v>
       </c>
@@ -16205,7 +16219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <v>1988</v>
       </c>
@@ -16336,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>1989</v>
       </c>
@@ -16467,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <v>1990</v>
       </c>
@@ -16598,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>1991</v>
       </c>
@@ -16729,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <v>1992</v>
       </c>
@@ -16860,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <v>1993</v>
       </c>
@@ -16991,7 +17005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <v>1994</v>
       </c>
@@ -17122,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <v>1995</v>
       </c>
@@ -17253,7 +17267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <v>1996</v>
       </c>
@@ -17384,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <v>1997</v>
       </c>
@@ -17515,7 +17529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <v>1998</v>
       </c>
@@ -17646,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <v>1999</v>
       </c>
@@ -17777,7 +17791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <v>2000</v>
       </c>
@@ -17908,7 +17922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>2001</v>
       </c>
@@ -18039,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <v>1977</v>
       </c>
@@ -18170,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <v>1980</v>
       </c>
@@ -18301,7 +18315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <v>1983</v>
       </c>
@@ -18432,7 +18446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <v>1986</v>
       </c>
@@ -18563,7 +18577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <v>1989</v>
       </c>
@@ -18694,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <v>1992</v>
       </c>
@@ -18825,7 +18839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <v>1995</v>
       </c>
@@ -18956,7 +18970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <v>1998</v>
       </c>
@@ -19087,7 +19101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <v>2001</v>
       </c>
@@ -19218,7 +19232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <v>-9999</v>
       </c>
@@ -19349,15 +19363,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="239" spans="1:43" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="239" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <v>0</v>
       </c>
@@ -19365,7 +19379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <v>0</v>
       </c>
@@ -19373,7 +19387,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <v>0</v>
       </c>
@@ -19381,7 +19395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <v>0</v>
       </c>
@@ -19389,7 +19403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <v>999</v>
       </c>
@@ -19413,22 +19427,22 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:57" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>25</v>
       </c>
@@ -19436,21 +19450,21 @@
         <v>15</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -19461,7 +19475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -19469,10 +19483,10 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -19480,15 +19494,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>-26</v>
       </c>
@@ -19565,7 +19579,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>-26</v>
       </c>
@@ -19622,7 +19636,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>80</v>
       </c>
@@ -19630,7 +19644,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>82</v>
@@ -19642,13 +19656,13 @@
         <v>78</v>
       </c>
       <c r="G11" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -19821,7 +19835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -19994,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>2</v>
       </c>
@@ -20127,7 +20141,7 @@
       <c r="BD14" s="7"/>
       <c r="BE14" s="7"/>
     </row>
-    <row r="15" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2</v>
       </c>
@@ -20273,14 +20287,14 @@
       <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -20288,17 +20302,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -20309,7 +20323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -20323,7 +20337,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -20337,7 +20351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -20354,7 +20368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1982</v>
       </c>
@@ -20371,7 +20385,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1985</v>
       </c>
@@ -20388,7 +20402,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1986</v>
       </c>
@@ -20408,7 +20422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1988</v>
       </c>
@@ -20425,7 +20439,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1990</v>
       </c>
@@ -20442,7 +20456,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>-9999</v>
       </c>
@@ -20459,23 +20473,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:75" ht="21" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:75" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>30</v>
       </c>
@@ -20483,12 +20497,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -20500,10 +20514,10 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1980</v>
       </c>
@@ -20526,7 +20540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1980</v>
       </c>
@@ -20549,7 +20563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>-9999</v>
       </c>
@@ -20569,30 +20583,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:75" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:75" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -20613,7 +20627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1971</v>
       </c>
@@ -20840,7 +20854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>1995</v>
       </c>
@@ -21067,7 +21081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1971</v>
       </c>
@@ -21294,7 +21308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>1995</v>
       </c>
@@ -21521,7 +21535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>-9999</v>
       </c>
@@ -21748,12 +21762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:75" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:75" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2</v>
       </c>
@@ -21761,7 +21775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -21772,7 +21786,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>1980</v>
       </c>
@@ -21783,7 +21797,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>1981</v>
       </c>
@@ -21794,7 +21808,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>1982</v>
       </c>
@@ -21805,7 +21819,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>1983</v>
       </c>
@@ -21816,7 +21830,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>1984</v>
       </c>
@@ -21827,7 +21841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>1980</v>
       </c>
@@ -21838,7 +21852,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>1981</v>
       </c>
@@ -21849,7 +21863,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>1982</v>
       </c>
@@ -21860,7 +21874,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>1983</v>
       </c>
@@ -21871,7 +21885,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>1984</v>
       </c>
@@ -21882,7 +21896,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>-9999</v>
       </c>
@@ -21893,12 +21907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>1</v>
       </c>
@@ -21906,7 +21920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>2</v>
       </c>
@@ -21914,10 +21928,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -21937,7 +21951,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>2001</v>
       </c>
@@ -21960,7 +21974,7 @@
         <v>0.54960681099999997</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>2002</v>
       </c>
@@ -21983,7 +21997,7 @@
         <v>0.46433986900000002</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>-9999</v>
       </c>
@@ -22022,14 +22036,14 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -22037,7 +22051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -22045,7 +22059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -22053,7 +22067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -22061,7 +22075,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>30</v>
       </c>
@@ -22069,7 +22083,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -22080,7 +22094,7 @@
         <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
@@ -22095,7 +22109,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -22121,7 +22135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -22147,12 +22161,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -22169,7 +22183,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -22186,7 +22200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -22203,7 +22217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -22234,40 +22248,40 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B3" s="22"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>117</v>
       </c>
@@ -22275,7 +22289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>118</v>
       </c>
@@ -22283,32 +22297,32 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>124</v>
       </c>
@@ -22316,7 +22330,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>125</v>
       </c>
@@ -22324,7 +22338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>126</v>
       </c>
@@ -22332,7 +22346,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>127</v>
       </c>
@@ -22340,7 +22354,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>128</v>
       </c>
